--- a/Doc/IbsysExcelTool.xlsx
+++ b/Doc/IbsysExcelTool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7308" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7305" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Produktionsprogramm" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Disposition_P2" sheetId="5" r:id="rId3"/>
     <sheet name="Disposition_P3" sheetId="6" r:id="rId4"/>
     <sheet name="Kapazitätsplan" sheetId="7" r:id="rId5"/>
+    <sheet name="Tabelle1" sheetId="8" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="74">
   <si>
     <t>Periode</t>
   </si>
@@ -239,6 +240,12 @@
   </si>
   <si>
     <t>Sach Nr.</t>
+  </si>
+  <si>
+    <t>Fragen: Alles dritteln bei Mehrfachverwendung?</t>
+  </si>
+  <si>
+    <t>Wie berechnet sich die Rüstzeit bei Vorperioden, wenn noch was übrig ist.</t>
   </si>
 </sst>
 </file>
@@ -360,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -385,7 +392,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -395,7 +401,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -422,6 +427,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -430,21 +438,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -457,6 +450,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,7 +738,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -741,20 +749,20 @@
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="25"/>
-    </row>
-    <row r="3" spans="2:6" ht="15" thickBot="1"/>
+      <c r="C2" s="24"/>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:6">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
@@ -766,7 +774,7 @@
       <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="14">
         <v>4</v>
       </c>
     </row>
@@ -804,20 +812,20 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15" thickBot="1">
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="13">
-        <v>100</v>
-      </c>
-      <c r="D7" s="13">
+      <c r="C7" s="12">
+        <v>100</v>
+      </c>
+      <c r="D7" s="12">
         <v>50</v>
       </c>
-      <c r="E7" s="13">
-        <v>100</v>
-      </c>
-      <c r="F7" s="13">
+      <c r="E7" s="12">
+        <v>50</v>
+      </c>
+      <c r="F7" s="12">
         <v>50</v>
       </c>
     </row>
@@ -834,28 +842,28 @@
   <dimension ref="B1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G3" sqref="G3:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="3.21875" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
-    <col min="6" max="6" width="3.109375" customWidth="1"/>
-    <col min="7" max="7" width="24.21875" customWidth="1"/>
-    <col min="8" max="8" width="3.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="2.88671875" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="3" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
     <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="19.44140625" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17.55" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:15" ht="46.05" customHeight="1">
+    <row r="1" spans="2:15" ht="17.649999999999999" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:15" ht="46.15" customHeight="1">
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -891,29 +899,38 @@
         <f>Produktionsprogramm!C5</f>
         <v>150</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="6"/>
+      <c r="D3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="6">
+        <v>100</v>
+      </c>
       <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="6">
+        <v>100</v>
+      </c>
       <c r="J3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
       <c r="L3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="6"/>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
       <c r="N3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="O3" s="9">
-        <v>200</v>
+        <f>C3+G3-I3-K3-M3</f>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="2:15">
@@ -922,7 +939,9 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="G4" s="23">
+        <v>100</v>
+      </c>
       <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
@@ -938,7 +957,10 @@
       <c r="N4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="10"/>
+      <c r="O4" s="9">
+        <f t="shared" ref="O4:O18" si="0">C4+G4-I4-K4-M4</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="2:15">
       <c r="B5" s="5" t="s">
@@ -946,7 +968,7 @@
       </c>
       <c r="C5" s="8">
         <f>O$3</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>5</v>
@@ -958,23 +980,35 @@
       <c r="F5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="23">
+        <v>100</v>
+      </c>
       <c r="H5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="6">
+        <f>130/3</f>
+        <v>43.333333333333336</v>
+      </c>
       <c r="J5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="6">
+        <v>150</v>
+      </c>
       <c r="L5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="6"/>
+      <c r="M5" s="6">
+        <v>20</v>
+      </c>
       <c r="N5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="10"/>
+      <c r="O5" s="9">
+        <f>IF((C5+G5-I5-K5-M5)&lt;0,0,C5+G5-I5-K5-M5)</f>
+        <v>36.666666666666657</v>
+      </c>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="5" t="s">
@@ -982,7 +1016,7 @@
       </c>
       <c r="C6" s="8">
         <f>O$3</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>5</v>
@@ -994,11 +1028,15 @@
       <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="23">
+        <v>100</v>
+      </c>
       <c r="H6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="6">
+        <v>100</v>
+      </c>
       <c r="J6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1010,7 +1048,10 @@
       <c r="N6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="9"/>
+      <c r="O6" s="9">
+        <f t="shared" ref="O6:O18" si="1">IF((C6+G6-I6-K6-M6)&lt;0,0,C6+G6-I6-K6-M6)</f>
+        <v>150</v>
+      </c>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="5"/>
@@ -1022,7 +1063,9 @@
       <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="23">
+        <v>100</v>
+      </c>
       <c r="H7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1038,7 +1081,10 @@
       <c r="N7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="10"/>
+      <c r="O7" s="9">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="5" t="s">
@@ -1046,7 +1092,7 @@
       </c>
       <c r="C8" s="8">
         <f>O$6</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>5</v>
@@ -1058,11 +1104,16 @@
       <c r="F8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="23">
+        <v>100</v>
+      </c>
       <c r="H8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="23">
+        <f>300/3</f>
+        <v>100</v>
+      </c>
       <c r="J8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1074,31 +1125,39 @@
       <c r="N8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="10"/>
+      <c r="O8" s="9">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="9" spans="2:15">
       <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" ref="C9:C10" si="0">O$6</f>
-        <v>0</v>
+        <f t="shared" ref="C9:C10" si="2">O$6</f>
+        <v>150</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="8">
-        <f t="shared" ref="E9:E10" si="1">K$6</f>
+        <f t="shared" ref="E9:E10" si="3">K$6</f>
         <v>0</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="23">
+        <v>100</v>
+      </c>
       <c r="H9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="6">
+        <f>300/3</f>
+        <v>100</v>
+      </c>
       <c r="J9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1110,31 +1169,39 @@
       <c r="N9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="10"/>
+      <c r="O9" s="9">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>150</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="23">
+        <v>100</v>
+      </c>
       <c r="H10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="6">
+        <f>100</f>
+        <v>100</v>
+      </c>
       <c r="J10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +1213,10 @@
       <c r="N10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="9"/>
+      <c r="O10" s="9">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="5"/>
@@ -1158,7 +1228,9 @@
       <c r="F11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="23">
+        <v>100</v>
+      </c>
       <c r="H11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1174,7 +1246,10 @@
       <c r="N11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="10"/>
+      <c r="O11" s="9">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="5" t="s">
@@ -1182,7 +1257,7 @@
       </c>
       <c r="C12" s="8">
         <f>O$10</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>5</v>
@@ -1194,11 +1269,15 @@
       <c r="F12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="23">
+        <v>100</v>
+      </c>
       <c r="H12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="6">
+        <v>100</v>
+      </c>
       <c r="J12" s="6" t="s">
         <v>6</v>
       </c>
@@ -1210,31 +1289,38 @@
       <c r="N12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O12" s="10"/>
+      <c r="O12" s="9">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" ref="C13:C14" si="2">O$10</f>
-        <v>0</v>
+        <f t="shared" ref="C13:C14" si="4">O$10</f>
+        <v>150</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="8">
-        <f t="shared" ref="E13:E14" si="3">K$10</f>
+        <f t="shared" ref="E13:E14" si="5">K$10</f>
         <v>0</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="23">
+        <v>100</v>
+      </c>
       <c r="H13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="6">
+        <v>100</v>
+      </c>
       <c r="J13" s="6" t="s">
         <v>6</v>
       </c>
@@ -1246,31 +1332,38 @@
       <c r="N13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O13" s="10"/>
+      <c r="O13" s="9">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>150</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="23">
+        <v>100</v>
+      </c>
       <c r="H14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="6"/>
+      <c r="I14" s="6">
+        <v>100</v>
+      </c>
       <c r="J14" s="6" t="s">
         <v>6</v>
       </c>
@@ -1282,7 +1375,10 @@
       <c r="N14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O14" s="9"/>
+      <c r="O14" s="9">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="5"/>
@@ -1294,7 +1390,9 @@
       <c r="F15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="23">
+        <v>100</v>
+      </c>
       <c r="H15" s="6" t="s">
         <v>6</v>
       </c>
@@ -1310,7 +1408,10 @@
       <c r="N15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O15" s="10"/>
+      <c r="O15" s="9">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="5" t="s">
@@ -1318,7 +1419,7 @@
       </c>
       <c r="C16" s="8">
         <f>O$14</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>5</v>
@@ -1330,11 +1431,15 @@
       <c r="F16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="23">
+        <v>100</v>
+      </c>
       <c r="H16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="6">
+        <v>100</v>
+      </c>
       <c r="J16" s="6" t="s">
         <v>6</v>
       </c>
@@ -1346,31 +1451,38 @@
       <c r="N16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="10"/>
+      <c r="O16" s="9">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" ref="C17:C18" si="4">O$14</f>
-        <v>0</v>
+        <f t="shared" ref="C17:C18" si="6">O$14</f>
+        <v>150</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" ref="E17:E18" si="5">K$14</f>
+        <f t="shared" ref="E17:E18" si="7">K$14</f>
         <v>0</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="23">
+        <v>100</v>
+      </c>
       <c r="H17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="6"/>
+      <c r="I17" s="6">
+        <v>100</v>
+      </c>
       <c r="J17" s="6" t="s">
         <v>6</v>
       </c>
@@ -1382,51 +1494,61 @@
       <c r="N17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O17" s="10"/>
-    </row>
-    <row r="18" spans="2:15" ht="15" thickBot="1">
-      <c r="B18" s="11" t="s">
+      <c r="O17" s="9">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="O18" s="14"/>
+      <c r="C18" s="11">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="23">
+        <v>100</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="12">
+        <v>100</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="9">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1440,31 +1562,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:O20"/>
+  <dimension ref="B1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="G3" sqref="G3:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="3.21875" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
-    <col min="6" max="6" width="3.109375" customWidth="1"/>
-    <col min="7" max="7" width="24.21875" customWidth="1"/>
-    <col min="8" max="8" width="3.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="2.88671875" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="3" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
     <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="19.44140625" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17.55" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:15" ht="46.05" customHeight="1">
+    <row r="1" spans="2:15" ht="17.649999999999999" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:15" ht="46.15" customHeight="1">
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1500,28 +1622,39 @@
         <f>Produktionsprogramm!C6</f>
         <v>100</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="6"/>
+      <c r="D3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="6">
+        <v>75</v>
+      </c>
       <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="6">
+        <v>50</v>
+      </c>
       <c r="J3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
       <c r="L3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="6"/>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
       <c r="N3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="9"/>
+      <c r="O3" s="9">
+        <f>C3+G3-I3-K3-M3</f>
+        <v>125</v>
+      </c>
     </row>
     <row r="4" spans="2:15">
       <c r="B4" s="5"/>
@@ -1529,7 +1662,9 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="G4" s="23">
+        <v>75</v>
+      </c>
       <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1545,7 +1680,10 @@
       <c r="N4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="10"/>
+      <c r="O4" s="9">
+        <f t="shared" ref="O4:O18" si="0">C4+G4-I4-K4-M4</f>
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="2:15">
       <c r="B5" s="5" t="s">
@@ -1553,7 +1691,7 @@
       </c>
       <c r="C5" s="8">
         <f>O$3</f>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>5</v>
@@ -1565,11 +1703,16 @@
       <c r="F5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="23">
+        <v>75</v>
+      </c>
       <c r="H5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="6">
+        <f>130/3</f>
+        <v>43.333333333333336</v>
+      </c>
       <c r="J5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1581,7 +1724,10 @@
       <c r="N5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="10"/>
+      <c r="O5" s="9">
+        <f>IF((C5+G5-I5-K5-M5)&lt;0,0,C5+G5-I5-K5-M5)</f>
+        <v>156.66666666666666</v>
+      </c>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="5" t="s">
@@ -1589,7 +1735,7 @@
       </c>
       <c r="C6" s="8">
         <f>O$3</f>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>5</v>
@@ -1601,11 +1747,15 @@
       <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="23">
+        <v>75</v>
+      </c>
       <c r="H6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="6">
+        <v>100</v>
+      </c>
       <c r="J6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1617,7 +1767,10 @@
       <c r="N6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="9"/>
+      <c r="O6" s="9">
+        <f t="shared" ref="O6:O18" si="1">IF((C6+G6-I6-K6-M6)&lt;0,0,C6+G6-I6-K6-M6)</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="5"/>
@@ -1629,7 +1782,9 @@
       <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="23">
+        <v>75</v>
+      </c>
       <c r="H7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1645,7 +1800,10 @@
       <c r="N7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="10"/>
+      <c r="O7" s="9">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="5" t="s">
@@ -1653,7 +1811,7 @@
       </c>
       <c r="C8" s="8">
         <f>O$6</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>5</v>
@@ -1665,11 +1823,16 @@
       <c r="F8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="23">
+        <v>75</v>
+      </c>
       <c r="H8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="6">
+        <f>300/3</f>
+        <v>100</v>
+      </c>
       <c r="J8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1681,31 +1844,39 @@
       <c r="N8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="10"/>
+      <c r="O8" s="9">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="2:15">
       <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" ref="C9:C10" si="0">O$6</f>
-        <v>0</v>
+        <f t="shared" ref="C9:C10" si="2">O$6</f>
+        <v>100</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="8">
-        <f t="shared" ref="E9:E10" si="1">K$6</f>
+        <f t="shared" ref="E9:E10" si="3">K$6</f>
         <v>0</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="23">
+        <v>75</v>
+      </c>
       <c r="H9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="6">
+        <f>300/3</f>
+        <v>100</v>
+      </c>
       <c r="J9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1717,27 +1888,32 @@
       <c r="N9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="10"/>
+      <c r="O9" s="9">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="23">
+        <v>75</v>
+      </c>
       <c r="H10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1753,7 +1929,10 @@
       <c r="N10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="9"/>
+      <c r="O10" s="9">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="5"/>
@@ -1765,7 +1944,9 @@
       <c r="F11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="23">
+        <v>75</v>
+      </c>
       <c r="H11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1781,7 +1962,10 @@
       <c r="N11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="10"/>
+      <c r="O11" s="9">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="5" t="s">
@@ -1789,7 +1973,7 @@
       </c>
       <c r="C12" s="8">
         <f>O$10</f>
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>5</v>
@@ -1801,11 +1985,15 @@
       <c r="F12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="23">
+        <v>75</v>
+      </c>
       <c r="H12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="6">
+        <v>100</v>
+      </c>
       <c r="J12" s="6" t="s">
         <v>6</v>
       </c>
@@ -1817,31 +2005,38 @@
       <c r="N12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O12" s="10"/>
+      <c r="O12" s="9">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" ref="C13:C14" si="2">O$10</f>
-        <v>0</v>
+        <f t="shared" ref="C13:C14" si="4">O$10</f>
+        <v>175</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="8">
-        <f t="shared" ref="E13:E14" si="3">K$10</f>
+        <f t="shared" ref="E13:E14" si="5">K$10</f>
         <v>0</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="23">
+        <v>75</v>
+      </c>
       <c r="H13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="6">
+        <v>100</v>
+      </c>
       <c r="J13" s="6" t="s">
         <v>6</v>
       </c>
@@ -1853,31 +2048,38 @@
       <c r="N13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O13" s="10"/>
+      <c r="O13" s="9">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>175</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="23">
+        <v>75</v>
+      </c>
       <c r="H14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="6"/>
+      <c r="I14" s="6">
+        <v>100</v>
+      </c>
       <c r="J14" s="6" t="s">
         <v>6</v>
       </c>
@@ -1889,7 +2091,10 @@
       <c r="N14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O14" s="9"/>
+      <c r="O14" s="9">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="5"/>
@@ -1901,7 +2106,9 @@
       <c r="F15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="23">
+        <v>75</v>
+      </c>
       <c r="H15" s="6" t="s">
         <v>6</v>
       </c>
@@ -1917,7 +2124,10 @@
       <c r="N15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O15" s="10"/>
+      <c r="O15" s="9">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="5" t="s">
@@ -1925,7 +2135,7 @@
       </c>
       <c r="C16" s="8">
         <f>O$14</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>5</v>
@@ -1937,11 +2147,15 @@
       <c r="F16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="23">
+        <v>75</v>
+      </c>
       <c r="H16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="6">
+        <v>100</v>
+      </c>
       <c r="J16" s="6" t="s">
         <v>6</v>
       </c>
@@ -1953,31 +2167,38 @@
       <c r="N16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="10"/>
+      <c r="O16" s="9">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" ref="C17:C18" si="4">O$14</f>
-        <v>0</v>
+        <f t="shared" ref="C17:C18" si="6">O$14</f>
+        <v>150</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" ref="E17:E18" si="5">K$14</f>
+        <f t="shared" ref="E17:E18" si="7">K$14</f>
         <v>0</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="23">
+        <v>75</v>
+      </c>
       <c r="H17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="6"/>
+      <c r="I17" s="6">
+        <v>100</v>
+      </c>
       <c r="J17" s="6" t="s">
         <v>6</v>
       </c>
@@ -1989,51 +2210,75 @@
       <c r="N17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O17" s="10"/>
-    </row>
-    <row r="18" spans="2:15" ht="15" thickBot="1">
-      <c r="B18" s="11" t="s">
+      <c r="O17" s="9">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B18" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="O18" s="14"/>
+      <c r="C18" s="11">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="23">
+        <v>75</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="12">
+        <v>90</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="12">
+        <v>10</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="9">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="G28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="G29" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2050,28 +2295,28 @@
   <dimension ref="B1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="3.21875" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
-    <col min="6" max="6" width="3.109375" customWidth="1"/>
-    <col min="7" max="7" width="24.21875" customWidth="1"/>
-    <col min="8" max="8" width="3.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="2.88671875" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="3" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
     <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="19.44140625" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17.55" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:15" ht="46.05" customHeight="1">
+    <row r="1" spans="2:15" ht="17.649999999999999" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:15" ht="46.15" customHeight="1">
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -2107,16 +2352,20 @@
         <f>Produktionsprogramm!C7</f>
         <v>100</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="6"/>
+      <c r="D3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="6">
+        <v>50</v>
+      </c>
       <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="6">
+        <v>50</v>
+      </c>
       <c r="J3" s="6" t="s">
         <v>6</v>
       </c>
@@ -2128,7 +2377,10 @@
       <c r="N3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="9"/>
+      <c r="O3" s="9">
+        <f>C3+G3-I3-K3-M3</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="2:15">
       <c r="B4" s="5"/>
@@ -2136,7 +2388,9 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="G4" s="23">
+        <v>50</v>
+      </c>
       <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2152,7 +2406,10 @@
       <c r="N4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="10"/>
+      <c r="O4" s="9">
+        <f t="shared" ref="O4:O18" si="0">C4+G4-I4-K4-M4</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="2:15">
       <c r="B5" s="5" t="s">
@@ -2160,7 +2417,7 @@
       </c>
       <c r="C5" s="8">
         <f>O$3</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>5</v>
@@ -2172,11 +2429,16 @@
       <c r="F5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="23">
+        <v>50</v>
+      </c>
       <c r="H5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="23">
+        <f>130/3</f>
+        <v>43.333333333333336</v>
+      </c>
       <c r="J5" s="6" t="s">
         <v>6</v>
       </c>
@@ -2188,7 +2450,10 @@
       <c r="N5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="10"/>
+      <c r="O5" s="9">
+        <f>IF((C5+G5-I5-K5-M5)&lt;0,0,C5+G5-I5-K5-M5)</f>
+        <v>106.66666666666666</v>
+      </c>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="5" t="s">
@@ -2196,7 +2461,7 @@
       </c>
       <c r="C6" s="8">
         <f>O$3</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>5</v>
@@ -2208,11 +2473,15 @@
       <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="23">
+        <v>50</v>
+      </c>
       <c r="H6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="6">
+        <v>100</v>
+      </c>
       <c r="J6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2224,7 +2493,10 @@
       <c r="N6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="9"/>
+      <c r="O6" s="9">
+        <f t="shared" ref="O6:O18" si="1">IF((C6+G6-I6-K6-M6)&lt;0,0,C6+G6-I6-K6-M6)</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="5"/>
@@ -2236,7 +2508,9 @@
       <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="23">
+        <v>50</v>
+      </c>
       <c r="H7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2252,7 +2526,10 @@
       <c r="N7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="10"/>
+      <c r="O7" s="9">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="5" t="s">
@@ -2260,7 +2537,7 @@
       </c>
       <c r="C8" s="8">
         <f>O$6</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>5</v>
@@ -2272,11 +2549,15 @@
       <c r="F8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="23">
+        <v>50</v>
+      </c>
       <c r="H8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="6">
+        <v>100</v>
+      </c>
       <c r="J8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2288,31 +2569,38 @@
       <c r="N8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="10"/>
+      <c r="O8" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="2:15">
       <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" ref="C9:C10" si="0">O$6</f>
-        <v>0</v>
+        <f t="shared" ref="C9:C10" si="2">O$6</f>
+        <v>50</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="8">
-        <f t="shared" ref="E9:E10" si="1">K$6</f>
+        <f t="shared" ref="E9:E10" si="3">K$6</f>
         <v>0</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="23">
+        <v>50</v>
+      </c>
       <c r="H9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="6">
+        <v>100</v>
+      </c>
       <c r="J9" s="6" t="s">
         <v>6</v>
       </c>
@@ -2324,31 +2612,38 @@
       <c r="N9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="10"/>
+      <c r="O9" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="23">
+        <v>50</v>
+      </c>
       <c r="H10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="6">
+        <v>100</v>
+      </c>
       <c r="J10" s="6" t="s">
         <v>6</v>
       </c>
@@ -2360,7 +2655,10 @@
       <c r="N10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="9"/>
+      <c r="O10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="5"/>
@@ -2372,7 +2670,9 @@
       <c r="F11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="23">
+        <v>50</v>
+      </c>
       <c r="H11" s="6" t="s">
         <v>6</v>
       </c>
@@ -2388,7 +2688,10 @@
       <c r="N11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="10"/>
+      <c r="O11" s="9">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="5" t="s">
@@ -2408,11 +2711,15 @@
       <c r="F12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="23">
+        <v>50</v>
+      </c>
       <c r="H12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="6">
+        <v>100</v>
+      </c>
       <c r="J12" s="6" t="s">
         <v>6</v>
       </c>
@@ -2424,31 +2731,38 @@
       <c r="N12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O12" s="10"/>
+      <c r="O12" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" ref="C13:C14" si="2">O$10</f>
+        <f t="shared" ref="C13:C14" si="4">O$10</f>
         <v>0</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="8">
-        <f t="shared" ref="E13:E14" si="3">K$10</f>
+        <f t="shared" ref="E13:E14" si="5">K$10</f>
         <v>0</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="23">
+        <v>50</v>
+      </c>
       <c r="H13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="6">
+        <v>100</v>
+      </c>
       <c r="J13" s="6" t="s">
         <v>6</v>
       </c>
@@ -2460,31 +2774,38 @@
       <c r="N13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O13" s="10"/>
+      <c r="O13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="23">
+        <v>50</v>
+      </c>
       <c r="H14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="6"/>
+      <c r="I14" s="6">
+        <v>100</v>
+      </c>
       <c r="J14" s="6" t="s">
         <v>6</v>
       </c>
@@ -2496,7 +2817,10 @@
       <c r="N14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O14" s="9"/>
+      <c r="O14" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="5"/>
@@ -2508,7 +2832,9 @@
       <c r="F15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="23">
+        <v>50</v>
+      </c>
       <c r="H15" s="6" t="s">
         <v>6</v>
       </c>
@@ -2524,7 +2850,10 @@
       <c r="N15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O15" s="10"/>
+      <c r="O15" s="9">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="5" t="s">
@@ -2544,47 +2873,62 @@
       <c r="F16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="23">
+        <v>50</v>
+      </c>
       <c r="H16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="6">
+        <v>50</v>
+      </c>
       <c r="J16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="6"/>
+      <c r="K16" s="6">
+        <v>40</v>
+      </c>
       <c r="L16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="6"/>
+      <c r="M16" s="6">
+        <v>10</v>
+      </c>
       <c r="N16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="10"/>
+      <c r="O16" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" ref="C17:C18" si="4">O$14</f>
+        <f t="shared" ref="C17:C18" si="6">O$14</f>
         <v>0</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" ref="E17:E18" si="5">K$14</f>
+        <f t="shared" ref="E17:E18" si="7">K$14</f>
         <v>0</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="23">
+        <v>50</v>
+      </c>
       <c r="H17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="6"/>
+      <c r="I17" s="6">
+        <v>100</v>
+      </c>
       <c r="J17" s="6" t="s">
         <v>6</v>
       </c>
@@ -2596,51 +2940,63 @@
       <c r="N17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O17" s="10"/>
-    </row>
-    <row r="18" spans="2:15" ht="15" thickBot="1">
-      <c r="B18" s="11" t="s">
+      <c r="O17" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="O18" s="14"/>
+      <c r="C18" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="23">
+        <v>50</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="12">
+        <v>100</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2656,56 +3012,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="5.21875" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" customWidth="1"/>
-    <col min="6" max="20" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="20" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="15" thickBot="1"/>
+    <row r="2" spans="2:20" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:20">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="35" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="34"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="28"/>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="6">
         <v>1</v>
       </c>
@@ -2748,23 +3104,23 @@
       <c r="S4" s="6">
         <v>14</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:20">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="8">
         <f>Disposition_P1!O12</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -2777,28 +3133,28 @@
       <c r="N5" s="6"/>
       <c r="O5" s="8">
         <f>4*E5</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="P5" s="8">
         <f>3*E5</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
-      <c r="T5" s="17"/>
+      <c r="T5" s="15"/>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="28"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="8">
         <f>Disposition_P2!O12</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -2811,23 +3167,23 @@
       <c r="N6" s="6"/>
       <c r="O6" s="8">
         <f t="shared" ref="O6:O10" si="0">4*E6</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="P6" s="8">
         <f t="shared" ref="P6:P10" si="1">3*E6</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
-      <c r="T6" s="17"/>
+      <c r="T6" s="15"/>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="28"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="20" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="8">
@@ -2854,21 +3210,21 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
-      <c r="T7" s="17"/>
+      <c r="T7" s="15"/>
     </row>
     <row r="8" spans="2:20">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="8">
         <f>Disposition_P1!O16</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -2881,28 +3237,28 @@
       <c r="N8" s="6"/>
       <c r="O8" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="P8" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
-      <c r="T8" s="17"/>
+      <c r="T8" s="15"/>
     </row>
     <row r="9" spans="2:20">
-      <c r="B9" s="28"/>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="8">
         <f>Disposition_P2!O16</f>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -2915,23 +3271,23 @@
       <c r="N9" s="6"/>
       <c r="O9" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="P9" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
-      <c r="T9" s="17"/>
+      <c r="T9" s="15"/>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="28"/>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="20" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="8">
@@ -2958,21 +3314,21 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
-      <c r="T10" s="17"/>
+      <c r="T10" s="15"/>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="8">
         <f>Disposition_P1!O13</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -2982,40 +3338,40 @@
       <c r="K11" s="6"/>
       <c r="L11" s="8">
         <f>2*E11</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M11" s="8">
         <f>E11</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="N11" s="8">
         <f>3*E11</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="8">
         <f>3*E11</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="R11" s="8">
         <f>2*E11</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S11" s="6"/>
-      <c r="T11" s="17"/>
+      <c r="T11" s="15"/>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="28"/>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="8">
         <f>Disposition_P2!O13</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -3025,35 +3381,35 @@
       <c r="K12" s="6"/>
       <c r="L12" s="8">
         <f t="shared" ref="L12:L16" si="2">2*E12</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M12" s="8">
         <f>2*E12</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" ref="N12:N16" si="3">3*E12</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="8">
         <f t="shared" ref="Q12:Q16" si="4">3*E12</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="R12" s="8">
         <f t="shared" ref="R12:R16" si="5">2*E12</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S12" s="6"/>
-      <c r="T12" s="17"/>
+      <c r="T12" s="15"/>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="28"/>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="20" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="8">
@@ -3089,21 +3445,21 @@
         <v>0</v>
       </c>
       <c r="S13" s="6"/>
-      <c r="T13" s="17"/>
+      <c r="T13" s="15"/>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="8">
         <f>Disposition_P1!O17</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -3113,40 +3469,40 @@
       <c r="K14" s="6"/>
       <c r="L14" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M14" s="8">
         <f>E14</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S14" s="6"/>
-      <c r="T14" s="17"/>
+      <c r="T14" s="15"/>
     </row>
     <row r="15" spans="2:20">
-      <c r="B15" s="28"/>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="8">
         <f>Disposition_P2!O17</f>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -3156,35 +3512,35 @@
       <c r="K15" s="6"/>
       <c r="L15" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="M15" s="8">
         <f>2*E15</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="R15" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="S15" s="6"/>
-      <c r="T15" s="17"/>
+      <c r="T15" s="15"/>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="28"/>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="8">
@@ -3220,21 +3576,21 @@
         <v>0</v>
       </c>
       <c r="S16" s="6"/>
-      <c r="T16" s="17"/>
+      <c r="T16" s="15"/>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="20" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="8">
         <f>Disposition_P1!O8+Disposition_P2!O8+Disposition_P3!O8</f>
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -3243,7 +3599,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="8">
         <f>2*E17</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -3254,23 +3610,23 @@
       <c r="R17" s="6"/>
       <c r="S17" s="8">
         <f>3*E17</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="17"/>
+        <v>675</v>
+      </c>
+      <c r="T17" s="15"/>
     </row>
     <row r="18" spans="2:20">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="20" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="8">
         <f>Disposition_P1!O9+Disposition_P2!O9+Disposition_P3!O9</f>
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -3286,24 +3642,24 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
-      <c r="T18" s="24">
+      <c r="T18" s="22">
         <f>3*E18</f>
-        <v>0</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="8">
         <f>Disposition_P1!O18</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -3312,38 +3668,38 @@
       <c r="J19" s="6"/>
       <c r="K19" s="8">
         <f>3*E19</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="L19" s="8">
         <f>2*E19</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M19" s="8">
         <f>3*E19</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="N19" s="8">
         <f>2*E19</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
-      <c r="T19" s="17"/>
+      <c r="T19" s="15"/>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="28"/>
-      <c r="C20" s="22" t="s">
+      <c r="B20" s="33"/>
+      <c r="C20" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="20" t="s">
         <v>44</v>
       </c>
       <c r="E20" s="8">
         <f>Disposition_P2!O18</f>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -3352,33 +3708,33 @@
       <c r="J20" s="6"/>
       <c r="K20" s="8">
         <f>3*E20</f>
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="L20" s="8">
         <f t="shared" ref="L20:L22" si="7">2*E20</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="M20" s="8">
         <f t="shared" ref="M20:M21" si="8">3*E20</f>
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="N20" s="8">
         <f t="shared" ref="N20:N21" si="9">2*E20</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
-      <c r="T20" s="17"/>
+      <c r="T20" s="15"/>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="28"/>
-      <c r="C21" s="22" t="s">
+      <c r="B21" s="33"/>
+      <c r="C21" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E21" s="8">
@@ -3411,21 +3767,21 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
-      <c r="T21" s="17"/>
+      <c r="T21" s="15"/>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="20" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="8">
         <f>Disposition_P1!O5+Disposition_P2!O5+Disposition_P3!O5</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -3435,7 +3791,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
@@ -3444,28 +3800,28 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
-      <c r="T22" s="24">
+      <c r="T22" s="22">
         <f>3*E22</f>
-        <v>0</v>
+        <v>900</v>
       </c>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="8">
         <f>Disposition_P1!O14</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F23" s="8">
         <f>6*E23</f>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -3480,23 +3836,23 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
-      <c r="T23" s="17"/>
+      <c r="T23" s="15"/>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="28"/>
-      <c r="C24" s="22" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="20" t="s">
         <v>41</v>
       </c>
       <c r="E24" s="8">
         <f>Disposition_P2!O14</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F24" s="8">
         <f>6*E24</f>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -3511,14 +3867,14 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
-      <c r="T24" s="17"/>
+      <c r="T24" s="15"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="28"/>
-      <c r="C25" s="22" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E25" s="8">
@@ -3542,26 +3898,26 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
-      <c r="T25" s="17"/>
+      <c r="T25" s="15"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="8">
         <f>Disposition_P1!O10</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="8">
         <f>5*E26</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -3575,24 +3931,24 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
-      <c r="T26" s="17"/>
+      <c r="T26" s="15"/>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="28"/>
-      <c r="C27" s="22" t="s">
+      <c r="B27" s="33"/>
+      <c r="C27" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E27" s="8">
         <f>Disposition_P2!O10</f>
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="8">
         <f>5*E27</f>
-        <v>0</v>
+        <v>875</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -3606,14 +3962,14 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
-      <c r="T27" s="17"/>
+      <c r="T27" s="15"/>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="28"/>
-      <c r="C28" s="22" t="s">
+      <c r="B28" s="33"/>
+      <c r="C28" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="20" t="s">
         <v>29</v>
       </c>
       <c r="E28" s="8">
@@ -3637,27 +3993,27 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
-      <c r="T28" s="17"/>
+      <c r="T28" s="15"/>
     </row>
     <row r="29" spans="2:20">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="20" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="8">
         <f>Disposition_P1!O6</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="8">
         <f>5*E29</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -3670,25 +4026,25 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
-      <c r="T29" s="17"/>
+      <c r="T29" s="15"/>
     </row>
     <row r="30" spans="2:20">
-      <c r="B30" s="28"/>
-      <c r="C30" s="22" t="s">
+      <c r="B30" s="33"/>
+      <c r="C30" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E30" s="8">
         <f>Disposition_P2!O6</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="8">
         <f>6*E30</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
@@ -3701,25 +4057,25 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
-      <c r="T30" s="17"/>
+      <c r="T30" s="15"/>
     </row>
     <row r="31" spans="2:20">
-      <c r="B31" s="28"/>
-      <c r="C31" s="22" t="s">
+      <c r="B31" s="33"/>
+      <c r="C31" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="8">
         <f>Disposition_P3!O6</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="8">
         <f>6*E31</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -3732,28 +4088,28 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
-      <c r="T31" s="17"/>
+      <c r="T31" s="15"/>
     </row>
     <row r="32" spans="2:20">
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="20" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="8">
         <f>Disposition_P1!O3</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="8">
         <f>6*E32</f>
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
@@ -3765,26 +4121,26 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
-      <c r="T32" s="17"/>
+      <c r="T32" s="15"/>
     </row>
     <row r="33" spans="2:20">
-      <c r="B33" s="28"/>
-      <c r="C33" s="22" t="s">
+      <c r="B33" s="33"/>
+      <c r="C33" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="20" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="8">
         <f>Disposition_P2!O3</f>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="8">
         <f>7*E33</f>
-        <v>0</v>
+        <v>875</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -3796,26 +4152,26 @@
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
-      <c r="T33" s="17"/>
+      <c r="T33" s="15"/>
     </row>
     <row r="34" spans="2:20">
-      <c r="B34" s="28"/>
-      <c r="C34" s="22" t="s">
+      <c r="B34" s="33"/>
+      <c r="C34" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="8">
         <f>Disposition_P3!O3</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="8">
         <f>7*E34</f>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
@@ -3827,30 +4183,30 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
-      <c r="T34" s="17"/>
+      <c r="T34" s="15"/>
     </row>
     <row r="35" spans="2:20">
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
       <c r="F35" s="8">
         <f>SUM(F5:F34)</f>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" ref="G35:T35" si="10">SUM(G5:G34)</f>
-        <v>0</v>
+        <v>1625</v>
       </c>
       <c r="H35" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="I35" s="8">
         <f t="shared" si="10"/>
-        <v>1200</v>
+        <v>2475</v>
       </c>
       <c r="J35" s="8">
         <f t="shared" si="10"/>
@@ -3858,136 +4214,196 @@
       </c>
       <c r="K35" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1275</v>
       </c>
       <c r="L35" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="M35" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1675</v>
       </c>
       <c r="N35" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2275</v>
       </c>
       <c r="O35" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="P35" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1725</v>
       </c>
       <c r="Q35" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1725</v>
       </c>
       <c r="R35" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="S35" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T35" s="24">
+        <v>675</v>
+      </c>
+      <c r="T35" s="22">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="36" spans="2:20">
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="17"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="6">
+        <f>IF(F23=0,0,20)+IF(F24=0,0,20)+IF(F25=0,0,20)</f>
+        <v>40</v>
+      </c>
+      <c r="G36" s="6">
+        <f>(IF(G26=0,0,1)+IF(G27=0,0,1)+IF(G28=0,0,1))*30</f>
+        <v>60</v>
+      </c>
+      <c r="H36" s="6">
+        <f>(IF(H29=0,0,1)+IF(H30=0,0,1)+IF(H31=0,0,1))*20</f>
+        <v>60</v>
+      </c>
+      <c r="I36" s="6">
+        <f>(IF(I32=0,0,1)+IF(I33=0,0,1)+IF(I34=0,0,1))*30</f>
+        <v>90</v>
+      </c>
+      <c r="J36" s="6">
+        <v>0</v>
+      </c>
+      <c r="K36" s="6">
+        <f>(IF(K17=0,0,1)+IF(K19=0,0,1)+IF(K20=0,0,1)+IF(K21=0,0,1))*15</f>
+        <v>45</v>
+      </c>
+      <c r="L36" s="6">
+        <f>(IF(L11=0,0,1)+IF(L12=0,0,1)+IF(L13=0,0,1)+IF(L14=0,0,1)+IF(L15=0,0,1)+IF(L16=0,0,1)+IF(L19=0,0,1)+IF(L20=0,0,1)+IF(L21=0,0,1)+IF(L22=0,0,1))*20</f>
+        <v>140</v>
+      </c>
+      <c r="M36" s="23">
+        <f>(IF(M11=0,0,1)+IF(M12=0,0,1)+IF(M13=0,0,1)+IF(M14=0,0,1)+IF(M15=0,0,1)+IF(M16=0,0,1)+IF(M19=0,0,1)+IF(M20=0,0,1)+IF(M21=0,0,1))*15</f>
+        <v>90</v>
+      </c>
+      <c r="N36" s="23">
+        <f>(IF(N11=0,0,1)+IF(N12=0,0,1)+IF(N13=0,0,1)+IF(N14=0,0,1)+IF(N15=0,0,1)+IF(N16=0,0,1)+IF(N19=0,0,1)+IF(N20=0,0,1)+IF(N21=0,0,1))*15</f>
+        <v>90</v>
+      </c>
+      <c r="O36" s="23">
+        <f>(IF(O5=0,0,1)+IF(O6=0,0,1)+IF(O7=0,0,1)+IF(O8=0,0,1)+IF(O9=0,0,1)+IF(O10=0,0,1))*20</f>
+        <v>80</v>
+      </c>
+      <c r="P36" s="23">
+        <f>(IF(P5=0,0,1)+IF(P6=0,0,1)+IF(P7=0,0,1)+IF(P8=0,0,1)+IF(P9=0,0,1)+IF(P10=0,0,1))*20</f>
+        <v>80</v>
+      </c>
+      <c r="Q36" s="23">
+        <f>(IF(Q11=0,0,1)+IF(Q12=0,0,1)+IF(Q13=0,0,1)+IF(Q14=0,0,1)+IF(Q15=0,0,1)+IF(Q16=0,0,1))*0</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="23">
+        <f>(IF(R11=0,0,1)+IF(R12=0,0,1)+IF(R13=0,0,1)+IF(R14=0,0,1)+IF(R15=0,0,1)+IF(R16=0,0,1))*0</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="23">
+        <f>(IF(S17=0,0,1))*0</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="23">
+        <f>(IF(T18=0,0,1)+IF(T22=0,0,1))*15</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="37" spans="2:20">
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
+      <c r="L37" s="6">
+        <v>260</v>
+      </c>
+      <c r="M37" s="6">
+        <v>570</v>
+      </c>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
+      <c r="P37" s="6">
+        <v>120</v>
+      </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
-      <c r="T37" s="17"/>
+      <c r="T37" s="15">
+        <v>60</v>
+      </c>
     </row>
     <row r="38" spans="2:20">
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
+      <c r="L38" s="6">
+        <v>0</v>
+      </c>
+      <c r="M38" s="6">
+        <v>15</v>
+      </c>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
+      <c r="P38" s="6">
+        <v>0</v>
+      </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
-      <c r="T38" s="17"/>
+      <c r="T38" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="2:20">
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
       <c r="F39" s="8">
         <f>SUM(F35:F38)</f>
-        <v>0</v>
+        <v>1840</v>
       </c>
       <c r="G39" s="8">
         <f t="shared" ref="G39:T39" si="11">SUM(G35:G38)</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="H39" s="8">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1710</v>
       </c>
       <c r="I39" s="8">
         <f t="shared" si="11"/>
-        <v>1200</v>
+        <v>2565</v>
       </c>
       <c r="J39" s="8">
         <f t="shared" si="11"/>
@@ -3995,70 +4411,76 @@
       </c>
       <c r="K39" s="8">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1320</v>
       </c>
       <c r="L39" s="8">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="M39" s="8">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2350</v>
       </c>
       <c r="N39" s="8">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2365</v>
       </c>
       <c r="O39" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>SUM(O35:O38)</f>
+        <v>2380</v>
       </c>
       <c r="P39" s="8">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1925</v>
       </c>
       <c r="Q39" s="8">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1725</v>
       </c>
       <c r="R39" s="8">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="S39" s="8">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T39" s="24">
+        <v>675</v>
+      </c>
+      <c r="T39" s="22">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:20" ht="15" thickBot="1">
-      <c r="B40" s="31" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B40" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="18"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B37:E37"/>
     <mergeCell ref="F3:T3"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="D3:D4"/>
@@ -4070,14 +4492,20 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B29:B31"/>
     <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B37:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Doc/IbsysExcelTool.xlsx
+++ b/Doc/IbsysExcelTool.xlsx
@@ -275,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -352,22 +352,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -410,9 +399,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -439,6 +425,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,21 +451,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,7 +724,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -755,10 +741,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:6">
@@ -899,11 +885,11 @@
         <f>Produktionsprogramm!C5</f>
         <v>150</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="D3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="6">
         <v>100</v>
       </c>
@@ -939,7 +925,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="23">
+      <c r="G4" s="22">
         <v>100</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -958,7 +944,7 @@
         <v>7</v>
       </c>
       <c r="O4" s="9">
-        <f t="shared" ref="O4:O18" si="0">C4+G4-I4-K4-M4</f>
+        <f t="shared" ref="O4" si="0">C4+G4-I4-K4-M4</f>
         <v>100</v>
       </c>
     </row>
@@ -980,7 +966,7 @@
       <c r="F5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="22">
         <v>100</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -1028,7 +1014,7 @@
       <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <v>100</v>
       </c>
       <c r="H6" s="6" t="s">
@@ -1063,7 +1049,7 @@
       <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="22">
         <v>100</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -1104,13 +1090,13 @@
       <c r="F8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="22">
         <v>100</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <f>300/3</f>
         <v>100</v>
       </c>
@@ -1148,7 +1134,7 @@
       <c r="F9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <v>100</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -1192,7 +1178,7 @@
       <c r="F10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <v>100</v>
       </c>
       <c r="H10" s="6" t="s">
@@ -1228,7 +1214,7 @@
       <c r="F11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="22">
         <v>100</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -1269,7 +1255,7 @@
       <c r="F12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="22">
         <v>100</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -1312,7 +1298,7 @@
       <c r="F13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="22">
         <v>100</v>
       </c>
       <c r="H13" s="6" t="s">
@@ -1355,7 +1341,7 @@
       <c r="F14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="22">
         <v>100</v>
       </c>
       <c r="H14" s="6" t="s">
@@ -1390,7 +1376,7 @@
       <c r="F15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="22">
         <v>100</v>
       </c>
       <c r="H15" s="6" t="s">
@@ -1431,7 +1417,7 @@
       <c r="F16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="22">
         <v>100</v>
       </c>
       <c r="H16" s="6" t="s">
@@ -1474,7 +1460,7 @@
       <c r="F17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="22">
         <v>100</v>
       </c>
       <c r="H17" s="6" t="s">
@@ -1517,7 +1503,7 @@
       <c r="F18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="22">
         <v>100</v>
       </c>
       <c r="H18" s="12" t="s">
@@ -1543,12 +1529,12 @@
       </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1622,11 +1608,11 @@
         <f>Produktionsprogramm!C6</f>
         <v>100</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="D3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="6">
         <v>75</v>
       </c>
@@ -1662,7 +1648,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="23">
+      <c r="G4" s="22">
         <v>75</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -1681,7 +1667,7 @@
         <v>7</v>
       </c>
       <c r="O4" s="9">
-        <f t="shared" ref="O4:O18" si="0">C4+G4-I4-K4-M4</f>
+        <f t="shared" ref="O4" si="0">C4+G4-I4-K4-M4</f>
         <v>75</v>
       </c>
     </row>
@@ -1703,7 +1689,7 @@
       <c r="F5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="22">
         <v>75</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -1747,7 +1733,7 @@
       <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <v>75</v>
       </c>
       <c r="H6" s="6" t="s">
@@ -1782,7 +1768,7 @@
       <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="22">
         <v>75</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -1823,7 +1809,7 @@
       <c r="F8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="22">
         <v>75</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -1867,7 +1853,7 @@
       <c r="F9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <v>75</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -1911,7 +1897,7 @@
       <c r="F10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <v>75</v>
       </c>
       <c r="H10" s="6" t="s">
@@ -1944,7 +1930,7 @@
       <c r="F11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="22">
         <v>75</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -1985,7 +1971,7 @@
       <c r="F12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="22">
         <v>75</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -2028,7 +2014,7 @@
       <c r="F13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="22">
         <v>75</v>
       </c>
       <c r="H13" s="6" t="s">
@@ -2071,7 +2057,7 @@
       <c r="F14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="22">
         <v>75</v>
       </c>
       <c r="H14" s="6" t="s">
@@ -2106,7 +2092,7 @@
       <c r="F15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="22">
         <v>75</v>
       </c>
       <c r="H15" s="6" t="s">
@@ -2147,7 +2133,7 @@
       <c r="F16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="22">
         <v>75</v>
       </c>
       <c r="H16" s="6" t="s">
@@ -2190,7 +2176,7 @@
       <c r="F17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="22">
         <v>75</v>
       </c>
       <c r="H17" s="6" t="s">
@@ -2233,7 +2219,7 @@
       <c r="F18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="22">
         <v>75</v>
       </c>
       <c r="H18" s="12" t="s">
@@ -2263,12 +2249,12 @@
       </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="28" spans="2:15">
       <c r="G28" t="s">
@@ -2352,11 +2338,11 @@
         <f>Produktionsprogramm!C7</f>
         <v>100</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="D3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="6">
         <v>50</v>
       </c>
@@ -2388,7 +2374,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="23">
+      <c r="G4" s="22">
         <v>50</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -2407,7 +2393,7 @@
         <v>7</v>
       </c>
       <c r="O4" s="9">
-        <f t="shared" ref="O4:O18" si="0">C4+G4-I4-K4-M4</f>
+        <f t="shared" ref="O4" si="0">C4+G4-I4-K4-M4</f>
         <v>50</v>
       </c>
     </row>
@@ -2429,13 +2415,13 @@
       <c r="F5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="22">
         <v>50</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="22">
         <f>130/3</f>
         <v>43.333333333333336</v>
       </c>
@@ -2473,7 +2459,7 @@
       <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <v>50</v>
       </c>
       <c r="H6" s="6" t="s">
@@ -2508,7 +2494,7 @@
       <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="22">
         <v>50</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -2549,7 +2535,7 @@
       <c r="F8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="22">
         <v>50</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -2592,7 +2578,7 @@
       <c r="F9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <v>50</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -2635,7 +2621,7 @@
       <c r="F10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <v>50</v>
       </c>
       <c r="H10" s="6" t="s">
@@ -2670,7 +2656,7 @@
       <c r="F11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="22">
         <v>50</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -2711,7 +2697,7 @@
       <c r="F12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="22">
         <v>50</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -2754,7 +2740,7 @@
       <c r="F13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="22">
         <v>50</v>
       </c>
       <c r="H13" s="6" t="s">
@@ -2797,7 +2783,7 @@
       <c r="F14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="22">
         <v>50</v>
       </c>
       <c r="H14" s="6" t="s">
@@ -2832,7 +2818,7 @@
       <c r="F15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="22">
         <v>50</v>
       </c>
       <c r="H15" s="6" t="s">
@@ -2873,7 +2859,7 @@
       <c r="F16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="22">
         <v>50</v>
       </c>
       <c r="H16" s="6" t="s">
@@ -2920,7 +2906,7 @@
       <c r="F17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="22">
         <v>50</v>
       </c>
       <c r="H17" s="6" t="s">
@@ -2963,7 +2949,7 @@
       <c r="F18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="22">
         <v>50</v>
       </c>
       <c r="H18" s="12" t="s">
@@ -2991,12 +2977,12 @@
       </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3012,8 +2998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3027,41 +3013,41 @@
   <sheetData>
     <row r="2" spans="2:20" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:20">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="29" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="28"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="32"/>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="6">
         <v>1</v>
       </c>
@@ -3109,13 +3095,13 @@
       </c>
     </row>
     <row r="5" spans="2:20">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="8">
@@ -3145,11 +3131,11 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="33"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="8">
@@ -3179,11 +3165,11 @@
       <c r="T6" s="15"/>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="33"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="8">
@@ -3213,13 +3199,13 @@
       <c r="T7" s="15"/>
     </row>
     <row r="8" spans="2:20">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="8">
@@ -3249,11 +3235,11 @@
       <c r="T8" s="15"/>
     </row>
     <row r="9" spans="2:20">
-      <c r="B9" s="33"/>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="8">
@@ -3283,11 +3269,11 @@
       <c r="T9" s="15"/>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="33"/>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="8">
@@ -3317,13 +3303,13 @@
       <c r="T10" s="15"/>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="8">
@@ -3362,11 +3348,11 @@
       <c r="T11" s="15"/>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="33"/>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="8">
@@ -3405,11 +3391,11 @@
       <c r="T12" s="15"/>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="33"/>
-      <c r="C13" s="20" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="8">
@@ -3448,13 +3434,13 @@
       <c r="T13" s="15"/>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="8">
@@ -3493,11 +3479,11 @@
       <c r="T14" s="15"/>
     </row>
     <row r="15" spans="2:20">
-      <c r="B15" s="33"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="8">
@@ -3536,11 +3522,11 @@
       <c r="T15" s="15"/>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="33"/>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="8">
@@ -3579,13 +3565,13 @@
       <c r="T16" s="15"/>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="8">
@@ -3615,13 +3601,13 @@
       <c r="T17" s="15"/>
     </row>
     <row r="18" spans="2:20">
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="8">
@@ -3642,19 +3628,19 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
-      <c r="T18" s="22">
+      <c r="T18" s="21">
         <f>3*E18</f>
         <v>675</v>
       </c>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="8">
@@ -3690,11 +3676,11 @@
       <c r="T19" s="15"/>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="33"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="30"/>
+      <c r="C20" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>44</v>
       </c>
       <c r="E20" s="8">
@@ -3730,11 +3716,11 @@
       <c r="T20" s="15"/>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="33"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="19" t="s">
         <v>35</v>
       </c>
       <c r="E21" s="8">
@@ -3770,13 +3756,13 @@
       <c r="T21" s="15"/>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="8">
@@ -3800,19 +3786,19 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
-      <c r="T22" s="22">
+      <c r="T22" s="21">
         <f>3*E22</f>
         <v>900</v>
       </c>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="19" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="8">
@@ -3839,11 +3825,11 @@
       <c r="T23" s="15"/>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="33"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="19" t="s">
         <v>41</v>
       </c>
       <c r="E24" s="8">
@@ -3870,11 +3856,11 @@
       <c r="T24" s="15"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="33"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E25" s="8">
@@ -3901,13 +3887,13 @@
       <c r="T25" s="15"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="8">
@@ -3934,11 +3920,11 @@
       <c r="T26" s="15"/>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="33"/>
-      <c r="C27" s="20" t="s">
+      <c r="B27" s="30"/>
+      <c r="C27" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="19" t="s">
         <v>38</v>
       </c>
       <c r="E27" s="8">
@@ -3965,11 +3951,11 @@
       <c r="T27" s="15"/>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="33"/>
-      <c r="C28" s="20" t="s">
+      <c r="B28" s="30"/>
+      <c r="C28" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="19" t="s">
         <v>29</v>
       </c>
       <c r="E28" s="8">
@@ -3996,13 +3982,13 @@
       <c r="T28" s="15"/>
     </row>
     <row r="29" spans="2:20">
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="8">
@@ -4029,11 +4015,11 @@
       <c r="T29" s="15"/>
     </row>
     <row r="30" spans="2:20">
-      <c r="B30" s="33"/>
-      <c r="C30" s="20" t="s">
+      <c r="B30" s="30"/>
+      <c r="C30" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="19" t="s">
         <v>37</v>
       </c>
       <c r="E30" s="8">
@@ -4060,11 +4046,11 @@
       <c r="T30" s="15"/>
     </row>
     <row r="31" spans="2:20">
-      <c r="B31" s="33"/>
-      <c r="C31" s="20" t="s">
+      <c r="B31" s="30"/>
+      <c r="C31" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="19" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="8">
@@ -4091,13 +4077,13 @@
       <c r="T31" s="15"/>
     </row>
     <row r="32" spans="2:20">
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="19" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="8">
@@ -4124,11 +4110,11 @@
       <c r="T32" s="15"/>
     </row>
     <row r="33" spans="2:20">
-      <c r="B33" s="33"/>
-      <c r="C33" s="20" t="s">
+      <c r="B33" s="30"/>
+      <c r="C33" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="8">
@@ -4155,11 +4141,11 @@
       <c r="T33" s="15"/>
     </row>
     <row r="34" spans="2:20">
-      <c r="B34" s="33"/>
-      <c r="C34" s="20" t="s">
+      <c r="B34" s="30"/>
+      <c r="C34" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="8">
@@ -4186,12 +4172,12 @@
       <c r="T34" s="15"/>
     </row>
     <row r="35" spans="2:20">
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
       <c r="F35" s="8">
         <f>SUM(F5:F34)</f>
         <v>1800</v>
@@ -4248,18 +4234,18 @@
         <f t="shared" si="10"/>
         <v>675</v>
       </c>
-      <c r="T35" s="22">
+      <c r="T35" s="21">
         <f t="shared" si="10"/>
         <v>1575</v>
       </c>
     </row>
     <row r="36" spans="2:20">
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
       <c r="F36" s="6">
         <f>IF(F23=0,0,20)+IF(F24=0,0,20)+IF(F25=0,0,20)</f>
         <v>40</v>
@@ -4287,46 +4273,46 @@
         <f>(IF(L11=0,0,1)+IF(L12=0,0,1)+IF(L13=0,0,1)+IF(L14=0,0,1)+IF(L15=0,0,1)+IF(L16=0,0,1)+IF(L19=0,0,1)+IF(L20=0,0,1)+IF(L21=0,0,1)+IF(L22=0,0,1))*20</f>
         <v>140</v>
       </c>
-      <c r="M36" s="23">
+      <c r="M36" s="22">
         <f>(IF(M11=0,0,1)+IF(M12=0,0,1)+IF(M13=0,0,1)+IF(M14=0,0,1)+IF(M15=0,0,1)+IF(M16=0,0,1)+IF(M19=0,0,1)+IF(M20=0,0,1)+IF(M21=0,0,1))*15</f>
         <v>90</v>
       </c>
-      <c r="N36" s="23">
+      <c r="N36" s="22">
         <f>(IF(N11=0,0,1)+IF(N12=0,0,1)+IF(N13=0,0,1)+IF(N14=0,0,1)+IF(N15=0,0,1)+IF(N16=0,0,1)+IF(N19=0,0,1)+IF(N20=0,0,1)+IF(N21=0,0,1))*15</f>
         <v>90</v>
       </c>
-      <c r="O36" s="23">
+      <c r="O36" s="22">
         <f>(IF(O5=0,0,1)+IF(O6=0,0,1)+IF(O7=0,0,1)+IF(O8=0,0,1)+IF(O9=0,0,1)+IF(O10=0,0,1))*20</f>
         <v>80</v>
       </c>
-      <c r="P36" s="23">
+      <c r="P36" s="22">
         <f>(IF(P5=0,0,1)+IF(P6=0,0,1)+IF(P7=0,0,1)+IF(P8=0,0,1)+IF(P9=0,0,1)+IF(P10=0,0,1))*20</f>
         <v>80</v>
       </c>
-      <c r="Q36" s="23">
+      <c r="Q36" s="22">
         <f>(IF(Q11=0,0,1)+IF(Q12=0,0,1)+IF(Q13=0,0,1)+IF(Q14=0,0,1)+IF(Q15=0,0,1)+IF(Q16=0,0,1))*0</f>
         <v>0</v>
       </c>
-      <c r="R36" s="23">
+      <c r="R36" s="22">
         <f>(IF(R11=0,0,1)+IF(R12=0,0,1)+IF(R13=0,0,1)+IF(R14=0,0,1)+IF(R15=0,0,1)+IF(R16=0,0,1))*0</f>
         <v>0</v>
       </c>
-      <c r="S36" s="23">
+      <c r="S36" s="22">
         <f>(IF(S17=0,0,1))*0</f>
         <v>0</v>
       </c>
-      <c r="T36" s="23">
+      <c r="T36" s="22">
         <f>(IF(T18=0,0,1)+IF(T22=0,0,1))*15</f>
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="2:20">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -4352,12 +4338,12 @@
       </c>
     </row>
     <row r="38" spans="2:20">
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -4383,12 +4369,12 @@
       </c>
     </row>
     <row r="39" spans="2:20">
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
       <c r="F39" s="8">
         <f>SUM(F35:F38)</f>
         <v>1840</v>
@@ -4445,42 +4431,81 @@
         <f t="shared" si="11"/>
         <v>675</v>
       </c>
-      <c r="T39" s="22">
+      <c r="T39" s="21">
         <f t="shared" si="11"/>
         <v>1665</v>
       </c>
     </row>
     <row r="40" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="16"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="12">
+        <f>IF((F39-2400)/5&lt;0,0,(F39-2400)/5)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="12">
+        <f t="shared" ref="G40:T40" si="12">IF((G39-2400)/5&lt;0,0,(G39-2400)/5)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="12">
+        <f t="shared" si="12"/>
+        <v>33</v>
+      </c>
+      <c r="J40" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="12">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="M40" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B37:E37"/>
     <mergeCell ref="F3:T3"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="D3:D4"/>
@@ -4493,6 +4518,12 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B37:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Doc/IbsysExcelTool.xlsx
+++ b/Doc/IbsysExcelTool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7305" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7308" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Produktionsprogramm" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="76">
   <si>
     <t>Periode</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>Wie berechnet sich die Rüstzeit bei Vorperioden, wenn noch was übrig ist.</t>
+  </si>
+  <si>
+    <t>Rückstand von anderen Arbeitsplätzen</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -356,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -422,23 +428,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -451,6 +448,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,7 +736,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -735,18 +747,18 @@
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="23"/>
-    </row>
-    <row r="3" spans="2:6" ht="15.75" thickBot="1"/>
+      <c r="C2" s="25"/>
+    </row>
+    <row r="3" spans="2:6" ht="15" thickBot="1"/>
     <row r="4" spans="2:6">
       <c r="B4" s="13" t="s">
         <v>0</v>
@@ -775,10 +787,10 @@
         <v>150</v>
       </c>
       <c r="E5" s="6">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -795,15 +807,15 @@
         <v>100</v>
       </c>
       <c r="F6" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.75" thickBot="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15" thickBot="1">
       <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D7" s="12">
         <v>50</v>
@@ -812,7 +824,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="12">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -827,29 +839,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G18"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" customWidth="1"/>
+    <col min="10" max="10" width="2.88671875" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="3" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
     <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" customWidth="1"/>
+    <col min="15" max="15" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17.649999999999999" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:15" ht="46.15" customHeight="1">
+    <row r="1" spans="2:15" ht="17.7" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:15" ht="46.2" customHeight="1">
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -885,11 +897,11 @@
         <f>Produktionsprogramm!C5</f>
         <v>150</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="D3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="6">
         <v>100</v>
       </c>
@@ -925,7 +937,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="22">
+      <c r="G4" s="24">
         <v>100</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -966,34 +978,36 @@
       <c r="F5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="22">
-        <v>100</v>
+      <c r="G5" s="24">
+        <v>50</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="6">
-        <f>130/3</f>
-        <v>43.333333333333336</v>
+        <f>5/3</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="6">
-        <v>150</v>
+      <c r="K5" s="24">
+        <f>280/3</f>
+        <v>93.333333333333329</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="M5" s="6">
-        <v>20</v>
+        <f>20/3</f>
+        <v>6.666666666666667</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="O5" s="9">
         <f>IF((C5+G5-I5-K5-M5)&lt;0,0,C5+G5-I5-K5-M5)</f>
-        <v>36.666666666666657</v>
+        <v>98.333333333333343</v>
       </c>
     </row>
     <row r="6" spans="2:15">
@@ -1014,7 +1028,7 @@
       <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="24">
         <v>100</v>
       </c>
       <c r="H6" s="6" t="s">
@@ -1049,7 +1063,7 @@
       <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="24">
         <v>100</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -1090,15 +1104,15 @@
       <c r="F8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="24">
         <v>100</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="22">
-        <f>300/3</f>
-        <v>100</v>
+        <f>225/3</f>
+        <v>75</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>6</v>
@@ -1113,7 +1127,7 @@
       </c>
       <c r="O8" s="9">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="2:15">
@@ -1134,15 +1148,15 @@
       <c r="F9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="24">
         <v>100</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="6">
-        <f>300/3</f>
-        <v>100</v>
+        <f>225/3</f>
+        <v>75</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>6</v>
@@ -1157,7 +1171,7 @@
       </c>
       <c r="O9" s="9">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -1178,14 +1192,13 @@
       <c r="F10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="24">
         <v>100</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I10" s="6">
-        <f>100</f>
         <v>100</v>
       </c>
       <c r="J10" s="6" t="s">
@@ -1214,7 +1227,7 @@
       <c r="F11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="24">
         <v>100</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -1255,7 +1268,7 @@
       <c r="F12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="24">
         <v>100</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -1298,7 +1311,7 @@
       <c r="F13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="24">
         <v>100</v>
       </c>
       <c r="H13" s="6" t="s">
@@ -1341,14 +1354,14 @@
       <c r="F14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="24">
         <v>100</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>6</v>
@@ -1363,7 +1376,7 @@
       </c>
       <c r="O14" s="9">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="2:15">
@@ -1376,7 +1389,7 @@
       <c r="F15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="24">
         <v>100</v>
       </c>
       <c r="H15" s="6" t="s">
@@ -1405,7 +1418,7 @@
       </c>
       <c r="C16" s="8">
         <f>O$14</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>5</v>
@@ -1417,14 +1430,14 @@
       <c r="F16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="24">
         <v>100</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I16" s="6">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>6</v>
@@ -1448,7 +1461,7 @@
       </c>
       <c r="C17" s="8">
         <f t="shared" ref="C17:C18" si="6">O$14</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>5</v>
@@ -1460,14 +1473,14 @@
       <c r="F17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="24">
         <v>100</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I17" s="6">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>6</v>
@@ -1485,13 +1498,13 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="15.75" thickBot="1">
+    <row r="18" spans="2:15" ht="15" thickBot="1">
       <c r="B18" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="11">
         <f t="shared" si="6"/>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>5</v>
@@ -1503,19 +1516,21 @@
       <c r="F18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="24">
         <v>100</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I18" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="12"/>
+      <c r="K18" s="12">
+        <v>150</v>
+      </c>
       <c r="L18" s="12" t="s">
         <v>6</v>
       </c>
@@ -1529,12 +1544,12 @@
       </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1550,29 +1565,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G18"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" customWidth="1"/>
+    <col min="10" max="10" width="2.88671875" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="3" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
     <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" customWidth="1"/>
+    <col min="15" max="15" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17.649999999999999" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:15" ht="46.15" customHeight="1">
+    <row r="1" spans="2:15" ht="17.7" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:15" ht="46.2" customHeight="1">
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1608,19 +1623,19 @@
         <f>Produktionsprogramm!C6</f>
         <v>100</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="D3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="6">
+        <v>100</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="6">
         <v>75</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="6">
-        <v>50</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>6</v>
@@ -1648,8 +1663,8 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="22">
-        <v>75</v>
+      <c r="G4" s="24">
+        <v>100</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>6</v>
@@ -1666,10 +1681,7 @@
       <c r="N4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="9">
-        <f t="shared" ref="O4" si="0">C4+G4-I4-K4-M4</f>
-        <v>75</v>
-      </c>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" spans="2:15">
       <c r="B5" s="5" t="s">
@@ -1689,30 +1701,36 @@
       <c r="F5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="22">
-        <v>75</v>
+      <c r="G5" s="24">
+        <v>100</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="6">
-        <f>130/3</f>
-        <v>43.333333333333336</v>
+        <f>5/3</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="6">
+        <f>280/3</f>
+        <v>93.333333333333329</v>
+      </c>
       <c r="L5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="6"/>
+      <c r="M5" s="6">
+        <f>20/3</f>
+        <v>6.666666666666667</v>
+      </c>
       <c r="N5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="O5" s="9">
         <f>IF((C5+G5-I5-K5-M5)&lt;0,0,C5+G5-I5-K5-M5)</f>
-        <v>156.66666666666666</v>
+        <v>123.33333333333333</v>
       </c>
     </row>
     <row r="6" spans="2:15">
@@ -1733,14 +1751,14 @@
       <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="24">
+        <v>100</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="6">
         <v>75</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="6">
-        <v>100</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>6</v>
@@ -1754,8 +1772,8 @@
         <v>7</v>
       </c>
       <c r="O6" s="9">
-        <f t="shared" ref="O6:O18" si="1">IF((C6+G6-I6-K6-M6)&lt;0,0,C6+G6-I6-K6-M6)</f>
-        <v>100</v>
+        <f t="shared" ref="O6:O18" si="0">IF((C6+G6-I6-K6-M6)&lt;0,0,C6+G6-I6-K6-M6)</f>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:15">
@@ -1768,8 +1786,8 @@
       <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="22">
-        <v>75</v>
+      <c r="G7" s="24">
+        <v>100</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>6</v>
@@ -1786,10 +1804,7 @@
       <c r="N7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="9">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="5" t="s">
@@ -1797,7 +1812,7 @@
       </c>
       <c r="C8" s="8">
         <f>O$6</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>5</v>
@@ -1809,15 +1824,15 @@
       <c r="F8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="24">
+        <v>100</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="6">
+        <f>225/3</f>
         <v>75</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="6">
-        <f>300/3</f>
-        <v>100</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>6</v>
@@ -1831,8 +1846,8 @@
         <v>7</v>
       </c>
       <c r="O8" s="9">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="2:15">
@@ -1840,28 +1855,28 @@
         <v>28</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" ref="C9:C10" si="2">O$6</f>
-        <v>100</v>
+        <f t="shared" ref="C9:C10" si="1">O$6</f>
+        <v>150</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="8">
-        <f t="shared" ref="E9:E10" si="3">K$6</f>
+        <f t="shared" ref="E9:E10" si="2">K$6</f>
         <v>0</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="24">
+        <v>100</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="6">
+        <f>225/3</f>
         <v>75</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="6">
-        <f>300/3</f>
-        <v>100</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>6</v>
@@ -1875,8 +1890,8 @@
         <v>7</v>
       </c>
       <c r="O9" s="9">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -1884,21 +1899,21 @@
         <v>38</v>
       </c>
       <c r="C10" s="8">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="8">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="22">
-        <v>75</v>
+      <c r="G10" s="24">
+        <v>100</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>6</v>
@@ -1916,8 +1931,8 @@
         <v>7</v>
       </c>
       <c r="O10" s="9">
-        <f t="shared" si="1"/>
-        <v>175</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="2:15">
@@ -1930,8 +1945,8 @@
       <c r="F11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="22">
-        <v>75</v>
+      <c r="G11" s="24">
+        <v>100</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>6</v>
@@ -1948,10 +1963,7 @@
       <c r="N11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="9">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="5" t="s">
@@ -1959,7 +1971,7 @@
       </c>
       <c r="C12" s="8">
         <f>O$10</f>
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>5</v>
@@ -1971,14 +1983,14 @@
       <c r="F12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="24">
+        <v>100</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="6">
         <v>75</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="6">
-        <v>100</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>6</v>
@@ -1992,8 +2004,8 @@
         <v>7</v>
       </c>
       <c r="O12" s="9">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -2001,27 +2013,27 @@
         <v>40</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" ref="C13:C14" si="4">O$10</f>
-        <v>175</v>
+        <f t="shared" ref="C13:C14" si="3">O$10</f>
+        <v>250</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="8">
-        <f t="shared" ref="E13:E14" si="5">K$10</f>
+        <f t="shared" ref="E13:E14" si="4">K$10</f>
         <v>0</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="24">
+        <v>100</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="6">
         <v>75</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="6">
-        <v>100</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>6</v>
@@ -2035,8 +2047,8 @@
         <v>7</v>
       </c>
       <c r="O13" s="9">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -2044,27 +2056,27 @@
         <v>41</v>
       </c>
       <c r="C14" s="8">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="8">
         <f t="shared" si="4"/>
-        <v>175</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="8">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="22">
-        <v>75</v>
+      <c r="G14" s="24">
+        <v>100</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="6">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>6</v>
@@ -2078,8 +2090,8 @@
         <v>7</v>
       </c>
       <c r="O14" s="9">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="2:15">
@@ -2092,8 +2104,8 @@
       <c r="F15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="22">
-        <v>75</v>
+      <c r="G15" s="24">
+        <v>100</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>6</v>
@@ -2110,10 +2122,7 @@
       <c r="N15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O15" s="9">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="5" t="s">
@@ -2121,7 +2130,7 @@
       </c>
       <c r="C16" s="8">
         <f>O$14</f>
-        <v>150</v>
+        <v>325</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>5</v>
@@ -2133,14 +2142,14 @@
       <c r="F16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="22">
-        <v>75</v>
+      <c r="G16" s="24">
+        <v>100</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I16" s="6">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>6</v>
@@ -2149,13 +2158,15 @@
       <c r="L16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="6"/>
+      <c r="M16" s="6">
+        <v>10</v>
+      </c>
       <c r="N16" s="6" t="s">
         <v>7</v>
       </c>
       <c r="O16" s="9">
-        <f t="shared" si="1"/>
-        <v>125</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="2:15">
@@ -2163,76 +2174,80 @@
         <v>43</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" ref="C17:C18" si="6">O$14</f>
-        <v>150</v>
+        <f t="shared" ref="C17:C18" si="5">O$14</f>
+        <v>325</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" ref="E17:E18" si="7">K$14</f>
+        <f t="shared" ref="E17:E18" si="6">K$14</f>
         <v>0</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="22">
-        <v>75</v>
+      <c r="G17" s="24">
+        <v>100</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I17" s="6">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="6"/>
+      <c r="K17" s="6">
+        <v>90</v>
+      </c>
       <c r="L17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M17" s="6"/>
+      <c r="M17" s="6">
+        <v>10</v>
+      </c>
       <c r="N17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="O17" s="9">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" ht="15.75" thickBot="1">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="15" thickBot="1">
       <c r="B18" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="11">
+        <f t="shared" si="5"/>
+        <v>325</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="11">
         <f t="shared" si="6"/>
-        <v>150</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="11">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="24">
+        <v>100</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="12">
         <v>75</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="12">
-        <v>0</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="12">
-        <v>90</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>6</v>
@@ -2244,17 +2259,17 @@
         <v>7</v>
       </c>
       <c r="O18" s="9">
-        <f t="shared" si="1"/>
-        <v>125</v>
+        <f t="shared" si="0"/>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
     </row>
     <row r="28" spans="2:15">
       <c r="G28" t="s">
@@ -2280,29 +2295,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" customWidth="1"/>
+    <col min="10" max="10" width="2.88671875" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="3" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
     <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" customWidth="1"/>
+    <col min="15" max="15" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17.649999999999999" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:15" ht="46.15" customHeight="1">
+    <row r="1" spans="2:15" ht="17.7" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:15" ht="46.2" customHeight="1">
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -2336,13 +2351,13 @@
       </c>
       <c r="C3" s="6">
         <f>Produktionsprogramm!C7</f>
-        <v>100</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+        <v>50</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="6">
         <v>50</v>
       </c>
@@ -2350,7 +2365,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>6</v>
@@ -2374,7 +2389,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="22">
+      <c r="G4" s="24">
         <v>50</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -2392,10 +2407,7 @@
       <c r="N4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="9">
-        <f t="shared" ref="O4" si="0">C4+G4-I4-K4-M4</f>
-        <v>50</v>
-      </c>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" spans="2:15">
       <c r="B5" s="5" t="s">
@@ -2415,30 +2427,36 @@
       <c r="F5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="24">
         <v>50</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="22">
-        <f>130/3</f>
-        <v>43.333333333333336</v>
+        <f>5/3</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="6">
+        <f>280/3</f>
+        <v>93.333333333333329</v>
+      </c>
       <c r="L5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="6"/>
+      <c r="M5" s="6">
+        <f>20/3</f>
+        <v>6.666666666666667</v>
+      </c>
       <c r="N5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="O5" s="9">
         <f>IF((C5+G5-I5-K5-M5)&lt;0,0,C5+G5-I5-K5-M5)</f>
-        <v>106.66666666666666</v>
+        <v>48.33333333333335</v>
       </c>
     </row>
     <row r="6" spans="2:15">
@@ -2459,14 +2477,14 @@
       <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="24">
         <v>50</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="6">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>6</v>
@@ -2480,8 +2498,8 @@
         <v>7</v>
       </c>
       <c r="O6" s="9">
-        <f t="shared" ref="O6:O18" si="1">IF((C6+G6-I6-K6-M6)&lt;0,0,C6+G6-I6-K6-M6)</f>
-        <v>50</v>
+        <f t="shared" ref="O6:O18" si="0">IF((C6+G6-I6-K6-M6)&lt;0,0,C6+G6-I6-K6-M6)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:15">
@@ -2494,7 +2512,7 @@
       <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="24">
         <v>50</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -2512,10 +2530,7 @@
       <c r="N7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="9">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="5" t="s">
@@ -2523,7 +2538,7 @@
       </c>
       <c r="C8" s="8">
         <f>O$6</f>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>5</v>
@@ -2535,14 +2550,15 @@
       <c r="F8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="24">
         <v>50</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="6">
-        <v>100</v>
+      <c r="I8" s="24">
+        <f>225/3</f>
+        <v>75</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>6</v>
@@ -2556,7 +2572,7 @@
         <v>7</v>
       </c>
       <c r="O8" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2565,27 +2581,28 @@
         <v>28</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" ref="C9:C10" si="2">O$6</f>
+        <f t="shared" ref="C9:C10" si="1">O$6</f>
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" ref="E9:E10" si="2">K$6</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="24">
         <v>50</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="8">
-        <f t="shared" ref="E9:E10" si="3">K$6</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="22">
-        <v>50</v>
-      </c>
       <c r="H9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="6">
-        <v>100</v>
+        <f>225/3</f>
+        <v>75</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>6</v>
@@ -2599,7 +2616,7 @@
         <v>7</v>
       </c>
       <c r="O9" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2608,27 +2625,27 @@
         <v>29</v>
       </c>
       <c r="C10" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="8">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="24">
         <v>50</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="22">
+      <c r="H10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="6">
         <v>50</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="6">
-        <v>100</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>6</v>
@@ -2642,8 +2659,8 @@
         <v>7</v>
       </c>
       <c r="O10" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:15">
@@ -2656,7 +2673,7 @@
       <c r="F11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="24">
         <v>50</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -2674,10 +2691,7 @@
       <c r="N11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="9">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="5" t="s">
@@ -2685,7 +2699,7 @@
       </c>
       <c r="C12" s="8">
         <f>O$10</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>5</v>
@@ -2697,7 +2711,7 @@
       <c r="F12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="24">
         <v>50</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -2718,7 +2732,7 @@
         <v>7</v>
       </c>
       <c r="O12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2727,20 +2741,20 @@
         <v>31</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" ref="C13:C14" si="4">O$10</f>
-        <v>0</v>
+        <f t="shared" ref="C13:C14" si="3">O$10</f>
+        <v>20</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="8">
-        <f t="shared" ref="E13:E14" si="5">K$10</f>
+        <f t="shared" ref="E13:E14" si="4">K$10</f>
         <v>0</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="24">
         <v>50</v>
       </c>
       <c r="H13" s="6" t="s">
@@ -2761,7 +2775,7 @@
         <v>7</v>
       </c>
       <c r="O13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2770,20 +2784,20 @@
         <v>32</v>
       </c>
       <c r="C14" s="8">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="F14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="24">
         <v>50</v>
       </c>
       <c r="H14" s="6" t="s">
@@ -2804,7 +2818,7 @@
         <v>7</v>
       </c>
       <c r="O14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2818,7 +2832,7 @@
       <c r="F15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="24">
         <v>50</v>
       </c>
       <c r="H15" s="6" t="s">
@@ -2836,10 +2850,7 @@
       <c r="N15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O15" s="9">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="5" t="s">
@@ -2859,21 +2870,19 @@
       <c r="F16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="24">
         <v>50</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I16" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="6">
-        <v>40</v>
-      </c>
+      <c r="K16" s="6"/>
       <c r="L16" s="6" t="s">
         <v>6</v>
       </c>
@@ -2884,7 +2893,7 @@
         <v>7</v>
       </c>
       <c r="O16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2893,20 +2902,20 @@
         <v>34</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" ref="C17:C18" si="6">O$14</f>
+        <f t="shared" ref="C17:C18" si="5">O$14</f>
         <v>0</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" ref="E17:E18" si="7">K$14</f>
+        <f t="shared" ref="E17:E18" si="6">K$14</f>
         <v>0</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="24">
         <v>50</v>
       </c>
       <c r="H17" s="6" t="s">
@@ -2927,43 +2936,41 @@
         <v>7</v>
       </c>
       <c r="O17" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" ht="15.75" thickBot="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="15" thickBot="1">
       <c r="B18" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="F18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="24">
         <v>50</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I18" s="12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="12">
-        <v>100</v>
-      </c>
+      <c r="K18" s="12"/>
       <c r="L18" s="12" t="s">
         <v>6</v>
       </c>
@@ -2972,17 +2979,17 @@
         <v>7</v>
       </c>
       <c r="O18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2996,58 +3003,58 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:T40"/>
+  <dimension ref="B2:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="20" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="20" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:20" ht="15" thickBot="1"/>
     <row r="3" spans="2:20">
       <c r="B3" s="16" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="17"/>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="32"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="29"/>
     </row>
     <row r="4" spans="2:20">
       <c r="B4" s="18" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="19"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="6">
         <v>1</v>
       </c>
@@ -3095,7 +3102,7 @@
       </c>
     </row>
     <row r="5" spans="2:20">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="34" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -3131,7 +3138,7 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="30"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="19" t="s">
         <v>65</v>
       </c>
@@ -3140,7 +3147,7 @@
       </c>
       <c r="E6" s="8">
         <f>Disposition_P2!O12</f>
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3153,11 +3160,11 @@
       <c r="N6" s="6"/>
       <c r="O6" s="8">
         <f t="shared" ref="O6:O10" si="0">4*E6</f>
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="P6" s="8">
         <f t="shared" ref="P6:P10" si="1">3*E6</f>
-        <v>450</v>
+        <v>825</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -3165,7 +3172,7 @@
       <c r="T6" s="15"/>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="30"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="19" t="s">
         <v>66</v>
       </c>
@@ -3199,7 +3206,7 @@
       <c r="T7" s="15"/>
     </row>
     <row r="8" spans="2:20">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="34" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -3235,7 +3242,7 @@
       <c r="T8" s="15"/>
     </row>
     <row r="9" spans="2:20">
-      <c r="B9" s="30"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="19" t="s">
         <v>65</v>
       </c>
@@ -3244,7 +3251,7 @@
       </c>
       <c r="E9" s="8">
         <f>Disposition_P2!O16</f>
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -3257,11 +3264,11 @@
       <c r="N9" s="6"/>
       <c r="O9" s="8">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="P9" s="8">
         <f t="shared" si="1"/>
-        <v>375</v>
+        <v>900</v>
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
@@ -3269,7 +3276,7 @@
       <c r="T9" s="15"/>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="30"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="19" t="s">
         <v>66</v>
       </c>
@@ -3303,7 +3310,7 @@
       <c r="T10" s="15"/>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="34" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -3348,7 +3355,7 @@
       <c r="T11" s="15"/>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="30"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="19" t="s">
         <v>65</v>
       </c>
@@ -3357,7 +3364,7 @@
       </c>
       <c r="E12" s="8">
         <f>Disposition_P2!O13</f>
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -3367,31 +3374,31 @@
       <c r="K12" s="6"/>
       <c r="L12" s="8">
         <f t="shared" ref="L12:L16" si="2">2*E12</f>
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="M12" s="8">
         <f>2*E12</f>
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" ref="N12:N16" si="3">3*E12</f>
-        <v>450</v>
+        <v>825</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="8">
         <f t="shared" ref="Q12:Q16" si="4">3*E12</f>
-        <v>450</v>
+        <v>825</v>
       </c>
       <c r="R12" s="8">
         <f t="shared" ref="R12:R16" si="5">2*E12</f>
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="S12" s="6"/>
       <c r="T12" s="15"/>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="30"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="19" t="s">
         <v>66</v>
       </c>
@@ -3434,7 +3441,7 @@
       <c r="T13" s="15"/>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="34" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -3479,7 +3486,7 @@
       <c r="T14" s="15"/>
     </row>
     <row r="15" spans="2:20">
-      <c r="B15" s="30"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="19" t="s">
         <v>65</v>
       </c>
@@ -3488,7 +3495,7 @@
       </c>
       <c r="E15" s="8">
         <f>Disposition_P2!O17</f>
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -3498,31 +3505,31 @@
       <c r="K15" s="6"/>
       <c r="L15" s="8">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M15" s="8">
         <f>2*E15</f>
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" si="3"/>
-        <v>375</v>
+        <v>900</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="8">
         <f t="shared" si="4"/>
-        <v>375</v>
+        <v>900</v>
       </c>
       <c r="R15" s="8">
         <f t="shared" si="5"/>
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="S15" s="6"/>
       <c r="T15" s="15"/>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="30"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="19" t="s">
         <v>66</v>
       </c>
@@ -3576,7 +3583,7 @@
       </c>
       <c r="E17" s="8">
         <f>Disposition_P1!O8+Disposition_P2!O8+Disposition_P3!O8</f>
-        <v>225</v>
+        <v>350</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -3585,7 +3592,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="8">
         <f>2*E17</f>
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -3596,7 +3603,7 @@
       <c r="R17" s="6"/>
       <c r="S17" s="8">
         <f>3*E17</f>
-        <v>675</v>
+        <v>1050</v>
       </c>
       <c r="T17" s="15"/>
     </row>
@@ -3612,7 +3619,7 @@
       </c>
       <c r="E18" s="8">
         <f>Disposition_P1!O9+Disposition_P2!O9+Disposition_P3!O9</f>
-        <v>225</v>
+        <v>350</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -3630,11 +3637,11 @@
       <c r="S18" s="6"/>
       <c r="T18" s="21">
         <f>3*E18</f>
-        <v>675</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="34" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="19" t="s">
@@ -3676,7 +3683,7 @@
       <c r="T19" s="15"/>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="30"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="19" t="s">
         <v>65</v>
       </c>
@@ -3685,7 +3692,7 @@
       </c>
       <c r="E20" s="8">
         <f>Disposition_P2!O18</f>
-        <v>125</v>
+        <v>340</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -3694,19 +3701,19 @@
       <c r="J20" s="6"/>
       <c r="K20" s="8">
         <f>3*E20</f>
-        <v>375</v>
+        <v>1020</v>
       </c>
       <c r="L20" s="8">
         <f t="shared" ref="L20:L22" si="7">2*E20</f>
-        <v>250</v>
+        <v>680</v>
       </c>
       <c r="M20" s="8">
         <f t="shared" ref="M20:M21" si="8">3*E20</f>
-        <v>375</v>
+        <v>1020</v>
       </c>
       <c r="N20" s="8">
         <f t="shared" ref="N20:N21" si="9">2*E20</f>
-        <v>250</v>
+        <v>680</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -3716,7 +3723,7 @@
       <c r="T20" s="15"/>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="30"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="19" t="s">
         <v>66</v>
       </c>
@@ -3767,7 +3774,7 @@
       </c>
       <c r="E22" s="8">
         <f>Disposition_P1!O5+Disposition_P2!O5+Disposition_P3!O5</f>
-        <v>300</v>
+        <v>270.00000000000006</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -3777,7 +3784,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="8">
         <f t="shared" si="7"/>
-        <v>600</v>
+        <v>540.00000000000011</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
@@ -3788,11 +3795,11 @@
       <c r="S22" s="6"/>
       <c r="T22" s="21">
         <f>3*E22</f>
-        <v>900</v>
+        <v>810.00000000000023</v>
       </c>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="34" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="19" t="s">
@@ -3803,11 +3810,11 @@
       </c>
       <c r="E23" s="8">
         <f>Disposition_P1!O14</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F23" s="8">
         <f>6*E23</f>
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -3825,7 +3832,7 @@
       <c r="T23" s="15"/>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="30"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="19" t="s">
         <v>65</v>
       </c>
@@ -3834,11 +3841,11 @@
       </c>
       <c r="E24" s="8">
         <f>Disposition_P2!O14</f>
-        <v>150</v>
+        <v>325</v>
       </c>
       <c r="F24" s="8">
         <f>6*E24</f>
-        <v>900</v>
+        <v>1950</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -3856,7 +3863,7 @@
       <c r="T24" s="15"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="30"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="19" t="s">
         <v>66</v>
       </c>
@@ -3887,7 +3894,7 @@
       <c r="T25" s="15"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="34" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="19" t="s">
@@ -3920,7 +3927,7 @@
       <c r="T26" s="15"/>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="30"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="19" t="s">
         <v>65</v>
       </c>
@@ -3929,12 +3936,12 @@
       </c>
       <c r="E27" s="8">
         <f>Disposition_P2!O10</f>
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="8">
         <f>5*E27</f>
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -3951,7 +3958,7 @@
       <c r="T27" s="15"/>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="30"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="19" t="s">
         <v>66</v>
       </c>
@@ -3960,12 +3967,12 @@
       </c>
       <c r="E28" s="8">
         <f>Disposition_P3!O10</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="8">
         <f>5*E28</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -3982,7 +3989,7 @@
       <c r="T28" s="15"/>
     </row>
     <row r="29" spans="2:20">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="34" t="s">
         <v>56</v>
       </c>
       <c r="C29" s="19" t="s">
@@ -4015,7 +4022,7 @@
       <c r="T29" s="15"/>
     </row>
     <row r="30" spans="2:20">
-      <c r="B30" s="30"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="19" t="s">
         <v>65</v>
       </c>
@@ -4024,13 +4031,13 @@
       </c>
       <c r="E30" s="8">
         <f>Disposition_P2!O6</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="8">
         <f>6*E30</f>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
@@ -4046,7 +4053,7 @@
       <c r="T30" s="15"/>
     </row>
     <row r="31" spans="2:20">
-      <c r="B31" s="30"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="19" t="s">
         <v>66</v>
       </c>
@@ -4055,13 +4062,13 @@
       </c>
       <c r="E31" s="8">
         <f>Disposition_P3!O6</f>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="8">
         <f>6*E31</f>
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -4077,7 +4084,7 @@
       <c r="T31" s="15"/>
     </row>
     <row r="32" spans="2:20">
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="34" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="19" t="s">
@@ -4109,8 +4116,8 @@
       <c r="S32" s="6"/>
       <c r="T32" s="15"/>
     </row>
-    <row r="33" spans="2:20">
-      <c r="B33" s="30"/>
+    <row r="33" spans="2:22">
+      <c r="B33" s="34"/>
       <c r="C33" s="19" t="s">
         <v>65</v>
       </c>
@@ -4140,8 +4147,8 @@
       <c r="S33" s="6"/>
       <c r="T33" s="15"/>
     </row>
-    <row r="34" spans="2:20">
-      <c r="B34" s="30"/>
+    <row r="34" spans="2:22">
+      <c r="B34" s="34"/>
       <c r="C34" s="19" t="s">
         <v>66</v>
       </c>
@@ -4170,25 +4177,29 @@
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
       <c r="T34" s="15"/>
-    </row>
-    <row r="35" spans="2:20">
-      <c r="B35" s="26" t="s">
+      <c r="V34">
+        <f>8*60*5</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22">
+      <c r="B35" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
       <c r="F35" s="8">
         <f>SUM(F5:F34)</f>
-        <v>1800</v>
+        <v>3150</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" ref="G35:T35" si="10">SUM(G5:G34)</f>
-        <v>1625</v>
+        <v>2100</v>
       </c>
       <c r="H35" s="8">
         <f t="shared" si="10"/>
-        <v>1650</v>
+        <v>1770</v>
       </c>
       <c r="I35" s="8">
         <f t="shared" si="10"/>
@@ -4200,59 +4211,59 @@
       </c>
       <c r="K35" s="8">
         <f t="shared" si="10"/>
-        <v>1275</v>
+        <v>2170</v>
       </c>
       <c r="L35" s="8">
         <f t="shared" si="10"/>
-        <v>2300</v>
+        <v>3270</v>
       </c>
       <c r="M35" s="8">
         <f t="shared" si="10"/>
-        <v>1675</v>
+        <v>2920</v>
       </c>
       <c r="N35" s="8">
         <f t="shared" si="10"/>
-        <v>2275</v>
+        <v>3605</v>
       </c>
       <c r="O35" s="8">
         <f t="shared" si="10"/>
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="P35" s="8">
         <f t="shared" si="10"/>
-        <v>1725</v>
+        <v>2625</v>
       </c>
       <c r="Q35" s="8">
         <f t="shared" si="10"/>
-        <v>1725</v>
+        <v>2625</v>
       </c>
       <c r="R35" s="8">
         <f t="shared" si="10"/>
-        <v>1150</v>
+        <v>1750</v>
       </c>
       <c r="S35" s="8">
         <f t="shared" si="10"/>
-        <v>675</v>
+        <v>1050</v>
       </c>
       <c r="T35" s="21">
         <f t="shared" si="10"/>
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="36" spans="2:20">
-      <c r="B36" s="26" t="s">
+        <v>1860.0000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22">
+      <c r="B36" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
       <c r="F36" s="6">
         <f>IF(F23=0,0,20)+IF(F24=0,0,20)+IF(F25=0,0,20)</f>
         <v>40</v>
       </c>
       <c r="G36" s="6">
         <f>(IF(G26=0,0,1)+IF(G27=0,0,1)+IF(G28=0,0,1))*30</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="H36" s="6">
         <f>(IF(H29=0,0,1)+IF(H30=0,0,1)+IF(H31=0,0,1))*20</f>
@@ -4306,13 +4317,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="2:20">
-      <c r="B37" s="26" t="s">
+    <row r="37" spans="2:22">
+      <c r="B37" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -4320,192 +4331,302 @@
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6">
-        <v>260</v>
+        <v>560</v>
       </c>
       <c r="M37" s="6">
-        <v>570</v>
-      </c>
-      <c r="N37" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="N37" s="6">
+        <v>720</v>
+      </c>
       <c r="O37" s="6"/>
-      <c r="P37" s="6">
-        <v>120</v>
-      </c>
+      <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
       <c r="T37" s="15">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="2:20">
-      <c r="B38" s="26" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22">
+      <c r="B38" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24">
+        <v>80</v>
+      </c>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24">
+        <v>80</v>
+      </c>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="15"/>
+    </row>
+    <row r="39" spans="2:22">
+      <c r="B39" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6">
-        <v>0</v>
-      </c>
-      <c r="M38" s="6">
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6">
+        <v>40</v>
+      </c>
+      <c r="M39" s="6">
+        <v>35</v>
+      </c>
+      <c r="N39" s="6">
+        <v>65</v>
+      </c>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="15">
         <v>15</v>
       </c>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20">
-      <c r="B39" s="26" t="s">
+    </row>
+    <row r="40" spans="2:22">
+      <c r="B40" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="8">
-        <f>SUM(F35:F38)</f>
-        <v>1840</v>
-      </c>
-      <c r="G39" s="8">
-        <f t="shared" ref="G39:T39" si="11">SUM(G35:G38)</f>
-        <v>1685</v>
-      </c>
-      <c r="H39" s="8">
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="8">
+        <f>SUM(F35:F39)</f>
+        <v>3190</v>
+      </c>
+      <c r="G40" s="8">
+        <f t="shared" ref="G40:T40" si="11">SUM(G35:G39)</f>
+        <v>2190</v>
+      </c>
+      <c r="H40" s="8">
         <f t="shared" si="11"/>
-        <v>1710</v>
-      </c>
-      <c r="I39" s="8">
+        <v>1830</v>
+      </c>
+      <c r="I40" s="8">
         <f t="shared" si="11"/>
         <v>2565</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J40" s="8">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K40" s="8">
         <f t="shared" si="11"/>
-        <v>1320</v>
-      </c>
-      <c r="L39" s="8">
+        <v>2215</v>
+      </c>
+      <c r="L40" s="8">
         <f t="shared" si="11"/>
-        <v>2700</v>
-      </c>
-      <c r="M39" s="8">
+        <v>4090</v>
+      </c>
+      <c r="M40" s="8">
         <f t="shared" si="11"/>
-        <v>2350</v>
-      </c>
-      <c r="N39" s="8">
+        <v>3165</v>
+      </c>
+      <c r="N40" s="8">
         <f t="shared" si="11"/>
-        <v>2365</v>
-      </c>
-      <c r="O39" s="8">
-        <f>SUM(O35:O38)</f>
-        <v>2380</v>
-      </c>
-      <c r="P39" s="8">
+        <v>4560</v>
+      </c>
+      <c r="O40" s="8">
+        <f>SUM(O35:O39)</f>
+        <v>3580</v>
+      </c>
+      <c r="P40" s="8">
         <f t="shared" si="11"/>
-        <v>1925</v>
-      </c>
-      <c r="Q39" s="8">
+        <v>2705</v>
+      </c>
+      <c r="Q40" s="8">
         <f t="shared" si="11"/>
-        <v>1725</v>
-      </c>
-      <c r="R39" s="8">
+        <v>2625</v>
+      </c>
+      <c r="R40" s="8">
         <f t="shared" si="11"/>
-        <v>1150</v>
-      </c>
-      <c r="S39" s="8">
+        <v>1750</v>
+      </c>
+      <c r="S40" s="8">
         <f t="shared" si="11"/>
-        <v>675</v>
-      </c>
-      <c r="T39" s="21">
+        <v>1050</v>
+      </c>
+      <c r="T40" s="21">
         <f t="shared" si="11"/>
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="40" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B40" s="28" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" ht="15" thickBot="1">
+      <c r="B41" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="12">
-        <f>IF((F39-2400)/5&lt;0,0,(F39-2400)/5)</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="12">
-        <f t="shared" ref="G40:T40" si="12">IF((G39-2400)/5&lt;0,0,(G39-2400)/5)</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="12">
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="12">
+        <f>IF((F40-2400)/5&lt;0,0,(F40-2400))</f>
+        <v>790</v>
+      </c>
+      <c r="G41" s="12">
+        <f t="shared" ref="G41:T41" si="12">IF((G40-2400)/5&lt;0,0,(G40-2400))</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="12">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I41" s="12">
         <f t="shared" si="12"/>
-        <v>33</v>
-      </c>
-      <c r="J40" s="12">
+        <v>165</v>
+      </c>
+      <c r="J41" s="12">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K40" s="12">
+      <c r="K41" s="12">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L40" s="12">
+      <c r="L41" s="12">
         <f t="shared" si="12"/>
-        <v>60</v>
-      </c>
-      <c r="M40" s="12">
+        <v>1690</v>
+      </c>
+      <c r="M41" s="12">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="12">
+        <v>765</v>
+      </c>
+      <c r="N41" s="12">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="12">
+        <v>2160</v>
+      </c>
+      <c r="O41" s="12">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="12">
+        <v>1180</v>
+      </c>
+      <c r="P41" s="12">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="12">
+        <v>305</v>
+      </c>
+      <c r="Q41" s="12">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="12">
+        <v>225</v>
+      </c>
+      <c r="R41" s="12">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S40" s="12">
+      <c r="S41" s="12">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T40" s="12">
+      <c r="T41" s="12">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22">
+      <c r="F42">
+        <v>800</v>
+      </c>
+      <c r="I42">
+        <v>200</v>
+      </c>
+      <c r="L42" t="s">
+        <v>75</v>
+      </c>
+      <c r="M42">
+        <v>800</v>
+      </c>
+      <c r="N42" t="s">
+        <v>75</v>
+      </c>
+      <c r="O42">
+        <v>1200</v>
+      </c>
+      <c r="P42">
+        <v>320</v>
+      </c>
+      <c r="Q42">
+        <v>250</v>
+      </c>
+      <c r="T42">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22">
+      <c r="F43" s="23">
+        <v>1</v>
+      </c>
+      <c r="G43" s="23">
+        <v>2</v>
+      </c>
+      <c r="H43" s="23">
+        <v>3</v>
+      </c>
+      <c r="I43" s="23">
+        <v>4</v>
+      </c>
+      <c r="J43" s="23">
+        <v>5</v>
+      </c>
+      <c r="K43" s="23">
+        <v>6</v>
+      </c>
+      <c r="L43" s="23">
+        <v>7</v>
+      </c>
+      <c r="M43" s="23">
+        <v>8</v>
+      </c>
+      <c r="N43" s="23">
+        <v>9</v>
+      </c>
+      <c r="O43" s="23">
+        <v>10</v>
+      </c>
+      <c r="P43" s="23">
+        <v>11</v>
+      </c>
+      <c r="Q43" s="23">
+        <v>12</v>
+      </c>
+      <c r="R43" s="23">
+        <v>13</v>
+      </c>
+      <c r="S43" s="23">
+        <v>14</v>
+      </c>
+      <c r="T43" s="23">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
     <mergeCell ref="F3:T3"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="D3:D4"/>
@@ -4518,14 +4639,9 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B37:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4535,7 +4651,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
